--- a/raw_databases/country_codes_independence_status.xlsx
+++ b/raw_databases/country_codes_independence_status.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Diogo\Profissional\Bootcamp ENAP\Modulo 2 - Ciências de Dados\gdp_science\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Diogo\Profissional\Bootcamp ENAP\Modulo 2 - Ciências de Dados\gdp_science\raw_databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA606DA-F777-4015-A863-B3762B35DCA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018B02A8-1689-450A-8367-D5C1848862A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -1912,14 +1912,14 @@
   <dimension ref="A1:H250"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
     <col min="2" max="2" width="30.6640625" customWidth="1"/>
-    <col min="3" max="3" width="5.77734375" customWidth="1"/>
+    <col min="3" max="3" width="38.88671875" customWidth="1"/>
     <col min="4" max="4" width="5.109375" customWidth="1"/>
     <col min="6" max="6" width="11.88671875" customWidth="1"/>
     <col min="8" max="8" width="33.88671875" customWidth="1"/>
